--- a/media/动画需求20240305.xlsx
+++ b/media/动画需求20240305.xlsx
@@ -7,9 +7,9 @@
     <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="2025年1月新需求" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="以往的需求" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,15 +29,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+  <si>
+    <t>动画需求（第三期，2025.1）</t>
+  </si>
+  <si>
+    <t>类目</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>角色动画的补充和修订</t>
+  </si>
+  <si>
+    <t>补充一个不拿武器的进攻动画</t>
+  </si>
   <si>
     <t>动画需求（第二期，2024.3.4）</t>
-  </si>
-  <si>
-    <t>类目</t>
-  </si>
-  <si>
-    <t>说明</t>
   </si>
   <si>
     <t>第一期的角色动画的补充</t>
@@ -1134,25 +1143,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:C17"/>
+  <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="47.75" customWidth="1"/>
-    <col min="3" max="3" width="64.5" customWidth="1"/>
+    <col min="2" max="2" width="27.75" customWidth="1"/>
+    <col min="3" max="3" width="63.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="24" spans="2:3">
+    <row r="2" ht="22.5" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" ht="24" spans="2:3">
+    <row r="3" ht="22.5" spans="2:3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1160,7 +1169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="365" customHeight="1" spans="2:3">
+    <row r="4" ht="189" customHeight="1" spans="2:3">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1168,83 +1177,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="99" customHeight="1" spans="2:3">
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" ht="128" customHeight="1" spans="2:3">
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" ht="290" customHeight="1" spans="2:3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" ht="71" customHeight="1" spans="2:3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" ht="24" spans="2:3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" ht="48" spans="2:3">
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" ht="24" spans="2:3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" ht="24" spans="2:3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" ht="24" spans="2:3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" ht="24" spans="2:3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" ht="24" spans="2:3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" ht="24" spans="2:3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" ht="24" spans="2:3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1272,14 +1207,118 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="47.75" customWidth="1"/>
+    <col min="3" max="3" width="64.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="22.5" spans="2:3">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" ht="22.5" spans="2:3">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="365" customHeight="1" spans="2:3">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="99" customHeight="1" spans="2:3">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="128" customHeight="1" spans="2:3">
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="290" customHeight="1" spans="2:3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="71" customHeight="1" spans="2:3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="22.5" spans="2:3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="45" spans="2:3">
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="22.5" spans="2:3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" spans="2:3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" ht="22.5" spans="2:3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" ht="22.5" spans="2:3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" ht="22.5" spans="2:3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" ht="22.5" spans="2:3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" ht="22.5" spans="2:3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
